--- a/me/1.Mot-so-dieu-can-biet-ve-Javascript/12.Bai-tap-thuc-hanh-so-04.xlsx
+++ b/me/1.Mot-so-dieu-can-biet-ve-Javascript/12.Bai-tap-thuc-hanh-so-04.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vudinhquang/Documents/quang/javascript_advance/me/1.Mot-so-dieu-can-biet-ve-Javascript/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94C8F994-B47D-134B-B7E8-AF8DB717739A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E76CCED9-B659-D943-B7AB-E63AE767E28C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3900" yWindow="2200" windowWidth="28040" windowHeight="17440" xr2:uid="{FBC49AA2-A781-414E-8A46-6E7163C61F86}"/>
   </bookViews>
@@ -109,8 +109,445 @@
     <t>javascript_advance/01_js_to_know/06_this_keyword/index.html</t>
   </si>
   <si>
-    <r>
-      <t>&lt;!DOCTYPE html&gt;
+    <t>javascript_advance/01_js_to_know/07_Explicit-Binding-bind-call-va-apply/arrow-this.js</t>
+  </si>
+  <si>
+    <t>}</t>
+  </si>
+  <si>
+    <t>const chiPu = {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    }</t>
+  </si>
+  <si>
+    <t>chiPu.hatTalkToMe();</t>
+  </si>
+  <si>
+    <t>chiPu.hatTuHomNay();</t>
+  </si>
+  <si>
+    <t>chiPu.hatTuHomNay.bind({ inputObj: 'vn' })();</t>
+  </si>
+  <si>
+    <t>chiPu.hatTuHomNay.call({ inputObj: 'vn' });</t>
+  </si>
+  <si>
+    <t>chiPu.hatTuHomNay.apply({ inputObj: 'vn' });</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    hatTalkToMe: function () {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        console.log('---- [hatTalkToMe] ----', this); // chiPu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        let buoiSang = () =&gt; {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            console.log('[hatTalkToMe] - buoiSang', this); // chiPu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        let buoiToi = function () {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            console.log('[hatTalkToMe] - buoiToi', this); // window</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        buoiSang();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        buoiToi();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    },</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    hatTuHomNay: () =&gt; {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        console.log('---- [hatTuHomNay] ----', this); // window</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            console.log('[hatTuHomNay] - buoiSang', this); // window</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            console.log('[hatTuHomNay] - buoiToi', this); // window</t>
+  </si>
+  <si>
+    <t>Phụ thuộc vào nơi khai báo function</t>
+  </si>
+  <si>
+    <t>Sử dụng this như là scope của function bên ngoài</t>
+  </si>
+  <si>
+    <t>Khai  báo hàm theo kiểu truyền thống bằng cách dùng từ khoá function</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Khai báo hàm bằng cách dùng </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>arrow</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> function</t>
+    </r>
+  </si>
+  <si>
+    <t>gọi hàm</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Dùng dot notation để gọi hàm </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>hatTuHomNay</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>()</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Dùng dot notation để gọi hàm </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>hatTalkToMe</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>()</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">・Bản thân arrow function </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>không dàng buộc được this</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Phụ thuộc vào this của tầm vực </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>cha</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Khai báo hàm bằng cách dùng </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>arrow</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> function </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">this sẽ phục thuộc vào this của tầm vực cha(tầm vực của hatTalkToMe) -&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>this = Chipu</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">hatTalkToMe là 1 function </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>thông thường</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> và được call bằng </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve">dot notation </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">nên this sẽ là Object </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>Chipu</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Khai báo hàm bằng cách dùng </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>arrow</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> function nên this của nó chính là this của tầm vực cha(hatTuHomNay) -&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>this = window</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">buoiToi là 1 function khai báo theo kiểu </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve">thông thường </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">và nó cũng </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">không dùng </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>dot notation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">nên nên this rơi vào trường hợp là </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve">ràng buộc default </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">-&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>this = window</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">this sẽ phụ thuộc this của tầm vựccha(Script) -&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>this = window</t>
+    </r>
+  </si>
+  <si>
+    <t>米 Khi khai báo 1 function ở trong Object, để có thể truy cập được this chính là Object hiện tại thì không được phép khai báo là arrow function, nếu khai báo là arrow function thì this sẽ có giá trị là window</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Vì hatTuHomNay là 1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>arrow function</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> nên JS sẽ không quan tâm đến việc truyền vào Object và kết quả vẫn là </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>this = window</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>. Tương tự đối với call và apply cũng vậy</t>
+    </r>
+  </si>
+  <si>
+    <t>window</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">&lt;!DOCTYPE html&gt;
 &lt;html lang="en"&gt;
 &lt;head&gt;
   &lt;meta charset="UTF-8"&gt;
@@ -121,7 +558,18 @@
 &lt;body&gt;
   &lt;h1&gt;Implicit Binding và từ khóa "this" &lt;/h1&gt;
 &lt;/body&gt;
-  &lt;script src="</t>
+  &lt;!-- &lt;script src="main.js"&gt;&lt;/script&gt; --&gt;
+  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;script src="</t>
     </r>
     <r>
       <rPr>
@@ -130,6 +578,16 @@
         <rFont val="Calibri (Body)"/>
       </rPr>
       <t>arrow-this.js</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"&gt;&lt;/script&gt;</t>
     </r>
     <r>
       <rPr>
@@ -139,446 +597,9 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>"&gt;&lt;/script&gt;
+      <t xml:space="preserve">
 &lt;/html&gt;</t>
     </r>
-  </si>
-  <si>
-    <t>javascript_advance/01_js_to_know/07_Explicit-Binding-bind-call-va-apply/arrow-this.js</t>
-  </si>
-  <si>
-    <t>}</t>
-  </si>
-  <si>
-    <t>const chiPu = {</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    }</t>
-  </si>
-  <si>
-    <t>chiPu.hatTalkToMe();</t>
-  </si>
-  <si>
-    <t>chiPu.hatTuHomNay();</t>
-  </si>
-  <si>
-    <t>chiPu.hatTuHomNay.bind({ inputObj: 'vn' })();</t>
-  </si>
-  <si>
-    <t>chiPu.hatTuHomNay.call({ inputObj: 'vn' });</t>
-  </si>
-  <si>
-    <t>chiPu.hatTuHomNay.apply({ inputObj: 'vn' });</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    hatTalkToMe: function () {</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        console.log('---- [hatTalkToMe] ----', this); // chiPu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        let buoiSang = () =&gt; {</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            console.log('[hatTalkToMe] - buoiSang', this); // chiPu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        }</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        let buoiToi = function () {</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            console.log('[hatTalkToMe] - buoiToi', this); // window</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        buoiSang();</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        buoiToi();</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    },</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    hatTuHomNay: () =&gt; {</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        console.log('---- [hatTuHomNay] ----', this); // window</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            console.log('[hatTuHomNay] - buoiSang', this); // window</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            console.log('[hatTuHomNay] - buoiToi', this); // window</t>
-  </si>
-  <si>
-    <t>Phụ thuộc vào nơi khai báo function</t>
-  </si>
-  <si>
-    <t>Sử dụng this như là scope của function bên ngoài</t>
-  </si>
-  <si>
-    <t>Khai  báo hàm theo kiểu truyền thống bằng cách dùng từ khoá function</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Khai báo hàm bằng cách dùng </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>arrow</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> function</t>
-    </r>
-  </si>
-  <si>
-    <t>gọi hàm</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Dùng dot notation để gọi hàm </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>hatTuHomNay</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>()</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Dùng dot notation để gọi hàm </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>hatTalkToMe</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>()</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">・Bản thân arrow function </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>không dàng buộc được this</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Phụ thuộc vào this của tầm vực </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>cha</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Khai báo hàm bằng cách dùng </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>arrow</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> function </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">this sẽ phục thuộc vào this của tầm vực cha(tầm vực của hatTalkToMe) -&gt; </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>this = Chipu</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">hatTalkToMe là 1 function </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>thông thường</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> và được call bằng </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t xml:space="preserve">dot notation </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">nên this sẽ là Object </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>Chipu</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Khai báo hàm bằng cách dùng </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>arrow</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> function nên this của nó chính là this của tầm vực cha(hatTuHomNay) -&gt; </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>this = window</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">buoiToi là 1 function khai báo theo kiểu </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t xml:space="preserve">thông thường </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">và nó cũng </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">không dùng </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>dot notation</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">nên nên this rơi vào trường hợp là </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t xml:space="preserve">ràng buộc default </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">-&gt; </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>this = window</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">this sẽ phụ thuộc this của tầm vựccha(Script) -&gt; </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>this = window</t>
-    </r>
-  </si>
-  <si>
-    <t>米 Khi khai báo 1 function ở trong Object, để có thể truy cập được this chính là Object hiện tại thì không được phép khai báo là arrow function, nếu khai báo là arrow function thì this sẽ có giá trị là window</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Vì hatTuHomNay là 1 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>arrow function</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> nên JS sẽ không quan tâm đến việc truyền vào Object và kết quả vẫn là </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>this = window</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>. Tương tự đối với call và apply cũng vậy</t>
-    </r>
-  </si>
-  <si>
-    <t>window</t>
   </si>
 </sst>
 </file>
@@ -711,7 +732,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -722,7 +743,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -750,7 +770,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -774,13 +793,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>558800</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>520700</xdr:colOff>
-      <xdr:row>84</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -827,13 +846,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -880,13 +899,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>622300</xdr:colOff>
-      <xdr:row>73</xdr:row>
+      <xdr:row>74</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>698500</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>75</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -933,13 +952,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>177800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>88900</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -986,13 +1005,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>127000</xdr:colOff>
-      <xdr:row>79</xdr:row>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>81</xdr:row>
+      <xdr:row>82</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1039,13 +1058,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>127000</xdr:colOff>
-      <xdr:row>91</xdr:row>
+      <xdr:row>92</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>13520</xdr:colOff>
-      <xdr:row>112</xdr:row>
+      <xdr:row>113</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1083,13 +1102,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>520700</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>94</xdr:row>
+      <xdr:row>95</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1136,13 +1155,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>596900</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>711200</xdr:colOff>
-      <xdr:row>95</xdr:row>
+      <xdr:row>96</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1189,13 +1208,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>165100</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>97</xdr:row>
+      <xdr:row>98</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1242,13 +1261,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>812800</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>75</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>596900</xdr:colOff>
-      <xdr:row>98</xdr:row>
+      <xdr:row>99</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1295,13 +1314,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:row>77</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>215900</xdr:colOff>
-      <xdr:row>99</xdr:row>
+      <xdr:row>100</xdr:row>
       <xdr:rowOff>50800</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1644,17 +1663,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CF520E7-336A-5345-BB26-95BE05487DA5}">
-  <dimension ref="A3:S90"/>
+  <dimension ref="A3:S91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="G74" sqref="G74"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="L46" sqref="L46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -1674,68 +1693,28 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B4" s="4"/>
-      <c r="C4" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="20"/>
-      <c r="K4" s="20"/>
-      <c r="L4" s="20"/>
-      <c r="M4" s="20"/>
-      <c r="N4" s="20"/>
-      <c r="O4" s="20"/>
-      <c r="P4" s="20"/>
+      <c r="C4" t="s">
+        <v>47</v>
+      </c>
       <c r="Q4" s="5"/>
       <c r="R4" t="s">
         <v>19</v>
       </c>
       <c r="S4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B5" s="4"/>
-      <c r="C5" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="20"/>
-      <c r="L5" s="20"/>
-      <c r="M5" s="20"/>
-      <c r="N5" s="20"/>
-      <c r="O5" s="20"/>
-      <c r="P5" s="20"/>
+      <c r="C5" t="s">
+        <v>48</v>
+      </c>
       <c r="Q5" s="5"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="20"/>
-      <c r="L6" s="20"/>
-      <c r="M6" s="20"/>
-      <c r="N6" s="20"/>
-      <c r="O6" s="20"/>
-      <c r="P6" s="20"/>
+        <v>62</v>
+      </c>
       <c r="Q6" s="5"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.2">
@@ -1969,7 +1948,7 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B38" s="4"/>
-      <c r="E38" s="10" t="s">
+      <c r="E38" t="s">
         <v>7</v>
       </c>
       <c r="G38" s="5"/>
@@ -1982,537 +1961,414 @@
       <c r="F39" s="8"/>
       <c r="G39" s="9"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A41" s="20"/>
-      <c r="B41" s="20"/>
-      <c r="C41" s="20"/>
-      <c r="D41" s="20"/>
-      <c r="E41" s="20"/>
-      <c r="F41" s="20"/>
-      <c r="G41" s="20"/>
-      <c r="H41" s="20"/>
-    </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B42" s="20"/>
-      <c r="C42" s="20"/>
-      <c r="D42" s="20"/>
-      <c r="E42" s="20"/>
-      <c r="F42" s="20"/>
-      <c r="G42" s="20"/>
-      <c r="H42" s="20"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" s="4"/>
-      <c r="B43" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C43" s="12"/>
-      <c r="D43" s="12"/>
-      <c r="E43" s="12"/>
-      <c r="F43" s="12"/>
-      <c r="G43" s="12"/>
-      <c r="H43" s="13"/>
+      <c r="B43" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C43" s="11"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="11"/>
+      <c r="G43" s="11"/>
+      <c r="H43" s="12"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" s="4"/>
-      <c r="B44" s="14"/>
-      <c r="C44" s="15"/>
-      <c r="D44" s="15"/>
-      <c r="E44" s="15"/>
-      <c r="F44" s="15"/>
-      <c r="G44" s="15"/>
-      <c r="H44" s="16"/>
+      <c r="B44" s="13"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="14"/>
+      <c r="E44" s="14"/>
+      <c r="F44" s="14"/>
+      <c r="G44" s="14"/>
+      <c r="H44" s="15"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" s="4"/>
-      <c r="B45" s="14"/>
-      <c r="C45" s="15"/>
-      <c r="D45" s="15"/>
-      <c r="E45" s="15"/>
-      <c r="F45" s="15"/>
-      <c r="G45" s="15"/>
-      <c r="H45" s="16"/>
+      <c r="B45" s="13"/>
+      <c r="C45" s="14"/>
+      <c r="D45" s="14"/>
+      <c r="E45" s="14"/>
+      <c r="F45" s="14"/>
+      <c r="G45" s="14"/>
+      <c r="H45" s="15"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" s="4"/>
-      <c r="B46" s="14"/>
-      <c r="C46" s="15"/>
-      <c r="D46" s="15"/>
-      <c r="E46" s="15"/>
-      <c r="F46" s="15"/>
-      <c r="G46" s="15"/>
-      <c r="H46" s="16"/>
+      <c r="B46" s="13"/>
+      <c r="C46" s="14"/>
+      <c r="D46" s="14"/>
+      <c r="E46" s="14"/>
+      <c r="F46" s="14"/>
+      <c r="G46" s="14"/>
+      <c r="H46" s="15"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" s="4"/>
-      <c r="B47" s="14"/>
-      <c r="C47" s="15"/>
-      <c r="D47" s="15"/>
-      <c r="E47" s="15"/>
-      <c r="F47" s="15"/>
-      <c r="G47" s="15"/>
-      <c r="H47" s="16"/>
+      <c r="B47" s="13"/>
+      <c r="C47" s="14"/>
+      <c r="D47" s="14"/>
+      <c r="E47" s="14"/>
+      <c r="F47" s="14"/>
+      <c r="G47" s="14"/>
+      <c r="H47" s="15"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" s="4"/>
-      <c r="B48" s="14"/>
-      <c r="C48" s="15"/>
-      <c r="D48" s="15"/>
-      <c r="E48" s="15"/>
-      <c r="F48" s="15"/>
-      <c r="G48" s="15"/>
-      <c r="H48" s="16"/>
+      <c r="B48" s="13"/>
+      <c r="C48" s="14"/>
+      <c r="D48" s="14"/>
+      <c r="E48" s="14"/>
+      <c r="F48" s="14"/>
+      <c r="G48" s="14"/>
+      <c r="H48" s="15"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" s="4"/>
-      <c r="B49" s="14"/>
-      <c r="C49" s="15"/>
-      <c r="D49" s="15"/>
-      <c r="E49" s="15"/>
-      <c r="F49" s="15"/>
-      <c r="G49" s="15"/>
-      <c r="H49" s="16"/>
+      <c r="B49" s="13"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="14"/>
+      <c r="F49" s="14"/>
+      <c r="G49" s="14"/>
+      <c r="H49" s="15"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" s="4"/>
-      <c r="B50" s="14"/>
-      <c r="C50" s="15"/>
-      <c r="D50" s="15"/>
-      <c r="E50" s="15"/>
-      <c r="F50" s="15"/>
-      <c r="G50" s="15"/>
-      <c r="H50" s="16"/>
+      <c r="B50" s="13"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="14"/>
+      <c r="F50" s="14"/>
+      <c r="G50" s="14"/>
+      <c r="H50" s="15"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" s="4"/>
-      <c r="B51" s="14"/>
-      <c r="C51" s="15"/>
-      <c r="D51" s="15"/>
-      <c r="E51" s="15"/>
-      <c r="F51" s="15"/>
-      <c r="G51" s="15"/>
-      <c r="H51" s="16"/>
+      <c r="B51" s="13"/>
+      <c r="C51" s="14"/>
+      <c r="D51" s="14"/>
+      <c r="E51" s="14"/>
+      <c r="F51" s="14"/>
+      <c r="G51" s="14"/>
+      <c r="H51" s="15"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" s="4"/>
-      <c r="B52" s="14"/>
-      <c r="C52" s="15"/>
-      <c r="D52" s="15"/>
-      <c r="E52" s="15"/>
-      <c r="F52" s="15"/>
-      <c r="G52" s="15"/>
-      <c r="H52" s="16"/>
+      <c r="B52" s="13"/>
+      <c r="C52" s="14"/>
+      <c r="D52" s="14"/>
+      <c r="E52" s="14"/>
+      <c r="F52" s="14"/>
+      <c r="G52" s="14"/>
+      <c r="H52" s="15"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" s="4"/>
-      <c r="B53" s="14"/>
-      <c r="C53" s="15"/>
-      <c r="D53" s="15"/>
-      <c r="E53" s="15"/>
-      <c r="F53" s="15"/>
-      <c r="G53" s="15"/>
-      <c r="H53" s="16"/>
+      <c r="B53" s="13"/>
+      <c r="C53" s="14"/>
+      <c r="D53" s="14"/>
+      <c r="E53" s="14"/>
+      <c r="F53" s="14"/>
+      <c r="G53" s="14"/>
+      <c r="H53" s="15"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" s="4"/>
-      <c r="B54" s="14"/>
-      <c r="C54" s="15"/>
-      <c r="D54" s="15"/>
-      <c r="E54" s="15"/>
-      <c r="F54" s="15"/>
-      <c r="G54" s="15"/>
-      <c r="H54" s="16"/>
+      <c r="B54" s="13"/>
+      <c r="C54" s="14"/>
+      <c r="D54" s="14"/>
+      <c r="E54" s="14"/>
+      <c r="F54" s="14"/>
+      <c r="G54" s="14"/>
+      <c r="H54" s="15"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" s="4"/>
-      <c r="B55" s="14"/>
-      <c r="C55" s="15"/>
-      <c r="D55" s="15"/>
-      <c r="E55" s="15"/>
-      <c r="F55" s="15"/>
-      <c r="G55" s="15"/>
-      <c r="H55" s="16"/>
+      <c r="B55" s="13"/>
+      <c r="C55" s="14"/>
+      <c r="D55" s="14"/>
+      <c r="E55" s="14"/>
+      <c r="F55" s="14"/>
+      <c r="G55" s="14"/>
+      <c r="H55" s="15"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" s="4"/>
-      <c r="B56" s="17"/>
-      <c r="C56" s="18"/>
-      <c r="D56" s="18"/>
-      <c r="E56" s="18"/>
-      <c r="F56" s="18"/>
-      <c r="G56" s="18"/>
-      <c r="H56" s="19"/>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
-        <v>25</v>
-      </c>
+      <c r="B56" s="13"/>
+      <c r="C56" s="14"/>
+      <c r="D56" s="14"/>
+      <c r="E56" s="14"/>
+      <c r="F56" s="14"/>
+      <c r="G56" s="14"/>
+      <c r="H56" s="15"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A57" s="4"/>
+      <c r="B57" s="16"/>
+      <c r="C57" s="17"/>
+      <c r="D57" s="17"/>
+      <c r="E57" s="17"/>
+      <c r="F57" s="17"/>
+      <c r="G57" s="17"/>
+      <c r="H57" s="18"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B60" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C60" s="2"/>
-      <c r="D60" s="2"/>
-      <c r="E60" s="2"/>
-      <c r="F60" s="2"/>
-      <c r="G60" s="3"/>
+      <c r="A60" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B61" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C61" s="20"/>
-      <c r="D61" s="20"/>
-      <c r="E61" s="20"/>
-      <c r="F61" s="20"/>
-      <c r="G61" s="5"/>
-      <c r="H61" t="s">
-        <v>19</v>
-      </c>
-      <c r="I61" t="s">
-        <v>50</v>
-      </c>
+      <c r="B61" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C61" s="2"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2"/>
+      <c r="F61" s="2"/>
+      <c r="G61" s="3"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B62" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C62" s="20"/>
-      <c r="D62" s="20"/>
-      <c r="E62" s="20"/>
-      <c r="F62" s="20"/>
+        <v>33</v>
+      </c>
       <c r="G62" s="5"/>
       <c r="H62" t="s">
         <v>19</v>
       </c>
       <c r="I62" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B63" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C63" s="20"/>
-      <c r="D63" s="20"/>
-      <c r="E63" s="20"/>
-      <c r="F63" s="20"/>
+        <v>34</v>
+      </c>
       <c r="G63" s="5"/>
       <c r="H63" t="s">
         <v>19</v>
       </c>
       <c r="I63" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B64" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C64" s="20"/>
-      <c r="D64" s="20"/>
-      <c r="E64" s="20"/>
-      <c r="F64" s="20"/>
+        <v>35</v>
+      </c>
       <c r="G64" s="5"/>
       <c r="H64" t="s">
         <v>19</v>
       </c>
       <c r="I64" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="65" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B65" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C65" s="20"/>
-      <c r="D65" s="20"/>
-      <c r="E65" s="20"/>
-      <c r="F65" s="20"/>
+        <v>36</v>
+      </c>
       <c r="G65" s="5"/>
+      <c r="H65" t="s">
+        <v>19</v>
+      </c>
+      <c r="I65" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="66" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B66" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C66" s="20"/>
-      <c r="D66" s="20"/>
-      <c r="E66" s="20"/>
-      <c r="F66" s="20"/>
+        <v>37</v>
+      </c>
       <c r="G66" s="5"/>
-      <c r="H66" t="s">
-        <v>19</v>
-      </c>
-      <c r="I66" t="s">
-        <v>50</v>
-      </c>
     </row>
     <row r="67" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B67" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C67" s="20"/>
-      <c r="D67" s="20"/>
-      <c r="E67" s="20"/>
-      <c r="F67" s="20"/>
+        <v>38</v>
+      </c>
       <c r="G67" s="5"/>
       <c r="H67" t="s">
         <v>19</v>
       </c>
       <c r="I67" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
     </row>
     <row r="68" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B68" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C68" s="20"/>
-      <c r="D68" s="20"/>
-      <c r="E68" s="20"/>
-      <c r="F68" s="20"/>
+        <v>39</v>
+      </c>
       <c r="G68" s="5"/>
+      <c r="H68" t="s">
+        <v>19</v>
+      </c>
+      <c r="I68" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="69" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B69" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C69" s="20"/>
-      <c r="D69" s="20"/>
-      <c r="E69" s="20"/>
-      <c r="F69" s="20"/>
+        <v>37</v>
+      </c>
       <c r="G69" s="5"/>
-      <c r="H69" t="s">
-        <v>19</v>
-      </c>
-      <c r="I69" t="s">
-        <v>52</v>
-      </c>
     </row>
     <row r="70" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B70" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C70" s="20"/>
-      <c r="D70" s="20"/>
-      <c r="E70" s="20"/>
-      <c r="F70" s="20"/>
+        <v>40</v>
+      </c>
       <c r="G70" s="5"/>
       <c r="H70" t="s">
         <v>19</v>
       </c>
       <c r="I70" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="71" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B71" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C71" s="20"/>
-      <c r="D71" s="20"/>
-      <c r="E71" s="20"/>
-      <c r="F71" s="20"/>
+        <v>41</v>
+      </c>
       <c r="G71" s="5"/>
+      <c r="H71" t="s">
+        <v>19</v>
+      </c>
+      <c r="I71" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="72" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B72" s="4"/>
-      <c r="C72" s="20"/>
-      <c r="D72" s="20"/>
-      <c r="E72" s="20"/>
-      <c r="F72" s="20"/>
+      <c r="B72" s="4" t="s">
+        <v>42</v>
+      </c>
       <c r="G72" s="5"/>
     </row>
     <row r="73" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B73" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C73" s="20"/>
-      <c r="D73" s="20"/>
-      <c r="E73" s="20"/>
-      <c r="F73" s="20"/>
+      <c r="B73" s="4"/>
       <c r="G73" s="5"/>
-      <c r="H73" t="s">
-        <v>19</v>
-      </c>
-      <c r="I73" t="s">
-        <v>51</v>
-      </c>
     </row>
     <row r="74" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B74" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C74" s="20"/>
-      <c r="D74" s="20"/>
-      <c r="E74" s="20"/>
-      <c r="F74" s="20"/>
+        <v>43</v>
+      </c>
       <c r="G74" s="5"/>
       <c r="H74" t="s">
         <v>19</v>
       </c>
       <c r="I74" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
     </row>
     <row r="75" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B75" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C75" s="20"/>
-      <c r="D75" s="20"/>
-      <c r="E75" s="20"/>
-      <c r="F75" s="20"/>
+        <v>44</v>
+      </c>
       <c r="G75" s="5"/>
       <c r="H75" t="s">
         <v>19</v>
       </c>
       <c r="I75" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="76" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B76" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C76" s="20"/>
-      <c r="D76" s="20"/>
-      <c r="E76" s="20"/>
-      <c r="F76" s="20"/>
+        <v>35</v>
+      </c>
       <c r="G76" s="5"/>
+      <c r="H76" t="s">
+        <v>19</v>
+      </c>
+      <c r="I76" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="77" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B77" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C77" s="20"/>
-      <c r="D77" s="20"/>
-      <c r="E77" s="20"/>
-      <c r="F77" s="20"/>
+        <v>45</v>
+      </c>
       <c r="G77" s="5"/>
     </row>
     <row r="78" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B78" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C78" s="20"/>
-      <c r="D78" s="20"/>
-      <c r="E78" s="20"/>
-      <c r="F78" s="20"/>
+        <v>37</v>
+      </c>
       <c r="G78" s="5"/>
-      <c r="H78" t="s">
-        <v>19</v>
-      </c>
-      <c r="I78" t="s">
-        <v>50</v>
-      </c>
     </row>
     <row r="79" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B79" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C79" s="20"/>
-      <c r="D79" s="20"/>
-      <c r="E79" s="20"/>
-      <c r="F79" s="20"/>
+        <v>38</v>
+      </c>
       <c r="G79" s="5"/>
       <c r="H79" t="s">
         <v>19</v>
       </c>
       <c r="I79" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
     </row>
     <row r="80" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B80" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C80" s="20"/>
-      <c r="D80" s="20"/>
-      <c r="E80" s="20"/>
-      <c r="F80" s="20"/>
+        <v>46</v>
+      </c>
       <c r="G80" s="5"/>
+      <c r="H80" t="s">
+        <v>19</v>
+      </c>
+      <c r="I80" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="81" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B81" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C81" s="20"/>
-      <c r="D81" s="20"/>
-      <c r="E81" s="20"/>
-      <c r="F81" s="20"/>
+        <v>37</v>
+      </c>
       <c r="G81" s="5"/>
-      <c r="H81" t="s">
-        <v>19</v>
-      </c>
-      <c r="I81" t="s">
-        <v>52</v>
-      </c>
     </row>
     <row r="82" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B82" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C82" s="20"/>
-      <c r="D82" s="20"/>
-      <c r="E82" s="20"/>
-      <c r="F82" s="20"/>
+        <v>40</v>
+      </c>
       <c r="G82" s="5"/>
       <c r="H82" t="s">
         <v>19</v>
       </c>
       <c r="I82" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="83" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B83" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C83" s="20"/>
-      <c r="D83" s="20"/>
-      <c r="E83" s="20"/>
-      <c r="F83" s="20"/>
+        <v>41</v>
+      </c>
       <c r="G83" s="5"/>
+      <c r="H83" t="s">
+        <v>19</v>
+      </c>
+      <c r="I83" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="84" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B84" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C84" s="20"/>
-      <c r="D84" s="20"/>
-      <c r="E84" s="20"/>
-      <c r="F84" s="20"/>
+        <v>27</v>
+      </c>
       <c r="G84" s="5"/>
     </row>
     <row r="85" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B85" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C85" s="20"/>
-      <c r="D85" s="20"/>
-      <c r="E85" s="20"/>
-      <c r="F85" s="20"/>
+        <v>25</v>
+      </c>
       <c r="G85" s="5"/>
-      <c r="H85" t="s">
-        <v>19</v>
-      </c>
-      <c r="I85" t="s">
-        <v>54</v>
-      </c>
     </row>
     <row r="86" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B86" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C86" s="20"/>
-      <c r="D86" s="20"/>
-      <c r="E86" s="20"/>
-      <c r="F86" s="20"/>
+        <v>28</v>
+      </c>
       <c r="G86" s="5"/>
       <c r="H86" t="s">
         <v>19</v>
@@ -2523,63 +2379,63 @@
     </row>
     <row r="87" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B87" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C87" s="20"/>
-      <c r="D87" s="20"/>
-      <c r="E87" s="20"/>
-      <c r="F87" s="20"/>
+        <v>29</v>
+      </c>
       <c r="G87" s="5"/>
       <c r="H87" t="s">
         <v>19</v>
       </c>
       <c r="I87" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
     </row>
     <row r="88" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B88" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C88" s="20"/>
-      <c r="D88" s="20"/>
-      <c r="E88" s="20"/>
-      <c r="F88" s="20"/>
+        <v>30</v>
+      </c>
       <c r="G88" s="5"/>
       <c r="H88" t="s">
         <v>19</v>
       </c>
       <c r="I88" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="89" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B89" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C89" s="20"/>
-      <c r="D89" s="20"/>
-      <c r="E89" s="20"/>
-      <c r="F89" s="20"/>
+        <v>31</v>
+      </c>
       <c r="G89" s="5"/>
       <c r="H89" t="s">
         <v>19</v>
       </c>
       <c r="I89" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="90" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B90" s="7"/>
-      <c r="C90" s="8"/>
-      <c r="D90" s="8"/>
-      <c r="E90" s="8"/>
-      <c r="F90" s="8"/>
-      <c r="G90" s="9"/>
+      <c r="B90" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G90" s="5"/>
+      <c r="H90" t="s">
+        <v>19</v>
+      </c>
+      <c r="I90" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="91" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B91" s="7"/>
+      <c r="C91" s="8"/>
+      <c r="D91" s="8"/>
+      <c r="E91" s="8"/>
+      <c r="F91" s="8"/>
+      <c r="G91" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B43:H56"/>
+    <mergeCell ref="B43:H57"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
